--- a/homework001/BusPark.xlsx
+++ b/homework001/BusPark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitamoskalev/GeekBrains/database/homework001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4EF6D5-54DB-A141-84AD-108756EE5451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229CC2B-3622-A848-AC6B-C3327431C22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27200" windowHeight="16900" xr2:uid="{2B126F2A-D184-6D41-84E0-BDF08401A73C}"/>
+    <workbookView xWindow="14380" yWindow="500" windowWidth="14040" windowHeight="16900" xr2:uid="{2B126F2A-D184-6D41-84E0-BDF08401A73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Составьте таблицы для хранения сведений об общественном транспорте. </t>
   </si>
@@ -50,21 +50,6 @@
     <t>— При составлении таблиц не берите слишком много сущностей.</t>
   </si>
   <si>
-    <t>ID_bus</t>
-  </si>
-  <si>
-    <t>ID_model</t>
-  </si>
-  <si>
-    <t>ID_driver</t>
-  </si>
-  <si>
-    <t>ID_conductor</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Hyundai</t>
   </si>
   <si>
@@ -77,18 +62,6 @@
     <t>BusPark</t>
   </si>
   <si>
-    <t>ID_path</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Школа №1</t>
   </si>
   <si>
@@ -110,12 +83,6 @@
     <t>ЖК Парковый</t>
   </si>
   <si>
-    <t>FIrstName</t>
-  </si>
-  <si>
-    <t>SecondName</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -126,6 +93,174 @@
   </si>
   <si>
     <t>Николаев</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>Дачные участки 189</t>
+  </si>
+  <si>
+    <t>Дмитриев</t>
+  </si>
+  <si>
+    <t>Антонов</t>
+  </si>
+  <si>
+    <t>Кириллов</t>
+  </si>
+  <si>
+    <t>Никитин</t>
+  </si>
+  <si>
+    <t>Алексеев</t>
+  </si>
+  <si>
+    <t>Максимов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Conductors</t>
+  </si>
+  <si>
+    <t>Петрова</t>
+  </si>
+  <si>
+    <t>Николаева</t>
+  </si>
+  <si>
+    <t>Дмитриева</t>
+  </si>
+  <si>
+    <t>Антонова</t>
+  </si>
+  <si>
+    <t>Кириллова</t>
+  </si>
+  <si>
+    <t>Алексеева</t>
+  </si>
+  <si>
+    <t>Максимова</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Васильева</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Никитина</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Кристина</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>ID_bus, int</t>
+  </si>
+  <si>
+    <t>ID_model, int</t>
+  </si>
+  <si>
+    <t>ID_path, int</t>
+  </si>
+  <si>
+    <t>ID_driver, int</t>
+  </si>
+  <si>
+    <t>ID_conductor, int</t>
+  </si>
+  <si>
+    <t>Model, string</t>
+  </si>
+  <si>
+    <t>Start, string</t>
+  </si>
+  <si>
+    <t>End, string</t>
+  </si>
+  <si>
+    <t>FIrstName, string</t>
+  </si>
+  <si>
+    <t>SecondName, string</t>
+  </si>
+  <si>
+    <t>PhoneNumber, int</t>
+  </si>
+  <si>
+    <t>DateBirth, int[]</t>
+  </si>
+  <si>
+    <t>Experience, int</t>
+  </si>
+  <si>
+    <t>FIrstName, int</t>
+  </si>
+  <si>
+    <t>SecondName, int</t>
   </si>
 </sst>
 </file>
@@ -196,12 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,329 +652,752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB15B97-4C14-9E4B-8492-E37DDBB3AF18}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="11.83203125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="13" width="17" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="17" width="12.1640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="13" width="18.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>22</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>65</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="H10" s="3">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="3">
+        <v>123</v>
+      </c>
+      <c r="S10" s="5">
+        <v>29546</v>
+      </c>
+      <c r="T10" s="3">
+        <v>22</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>155</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>32546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="H11" s="3">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
         <v>2</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="P11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="3">
+        <v>347</v>
+      </c>
+      <c r="S11" s="5">
+        <v>32785</v>
+      </c>
+      <c r="T11" s="3">
+        <v>14</v>
+      </c>
+      <c r="V11" s="3">
         <v>2</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="W11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>379</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>35785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="H12" s="3">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6</v>
+      </c>
+      <c r="O12" s="3">
         <v>3</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="P12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="3">
+        <v>541</v>
+      </c>
+      <c r="S12" s="5">
+        <v>30938</v>
+      </c>
+      <c r="T12" s="3">
+        <v>18</v>
+      </c>
+      <c r="V12" s="3">
         <v>3</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="W12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>573</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>33938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="K13" s="3">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3">
         <v>4</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="P13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="3">
+        <v>887</v>
+      </c>
+      <c r="S13" s="5">
+        <v>28732</v>
+      </c>
+      <c r="T13" s="3">
+        <v>27</v>
+      </c>
+      <c r="V13" s="3">
         <v>4</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="W13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>919</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>31732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="K14" s="3">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
         <v>5</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="P14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="3">
+        <v>259</v>
+      </c>
+      <c r="S14" s="5">
+        <v>30140</v>
+      </c>
+      <c r="T14" s="3">
         <v>22</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="V14" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="W14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>291</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>33140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="O15" s="1">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="3">
+      <c r="P15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="3">
+        <v>601</v>
+      </c>
+      <c r="S15" s="5">
+        <v>30849</v>
+      </c>
+      <c r="T15" s="3">
+        <v>19</v>
+      </c>
+      <c r="V15" s="3">
+        <v>6</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>633</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>33849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="P16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="3">
+        <v>214</v>
+      </c>
+      <c r="S16" s="5">
+        <v>31536</v>
+      </c>
+      <c r="T16" s="3">
+        <v>17</v>
+      </c>
+      <c r="V16" s="3">
+        <v>7</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>246</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>34536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
+      <c r="M17" s="3">
+        <v>7</v>
+      </c>
+      <c r="O17" s="3">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="3">
+        <v>398</v>
+      </c>
+      <c r="S17" s="5">
+        <v>28974</v>
+      </c>
+      <c r="T17" s="3">
+        <v>25</v>
+      </c>
+      <c r="V17" s="3">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>430</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>31974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
+      <c r="L18" s="3">
+        <v>9</v>
+      </c>
+      <c r="M18" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
+      <c r="O18" s="3">
+        <v>9</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="3">
+        <v>447</v>
+      </c>
+      <c r="S18" s="5">
+        <v>31861</v>
+      </c>
+      <c r="T18" s="3">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
+        <v>9</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>479</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>34861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3">
+        <v>9</v>
+      </c>
+      <c r="O19" s="3">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="3">
+        <v>183</v>
+      </c>
+      <c r="S19" s="5">
+        <v>32550</v>
+      </c>
+      <c r="T19" s="3">
+        <v>9</v>
+      </c>
+      <c r="V19" s="3">
+        <v>10</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>215</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>35550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
